--- a/4. Data/R models/Error By Country/HSI/HSI_error.xlsx
+++ b/4. Data/R models/Error By Country/HSI/HSI_error.xlsx
@@ -1,21 +1,112 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Thesis Francisco Bettencourt\Tese Nov\4. Data\R models\Error By Country\HSI\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E5DC0C5-D244-44C5-836D-1B5035504E8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="28680" yWindow="1410" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$G$5:$J$16</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+  <si>
+    <t>Mean Absolute Error</t>
+  </si>
+  <si>
+    <t>Mean Squared Error</t>
+  </si>
+  <si>
+    <t>Root Mean Squared Error</t>
+  </si>
+  <si>
+    <t>GARCH Training</t>
+  </si>
+  <si>
+    <t>GARCH Test</t>
+  </si>
+  <si>
+    <t>Monte Carlo</t>
+  </si>
+  <si>
+    <t>GARCH-MIDAS Training</t>
+  </si>
+  <si>
+    <t>GARCH-MIDAS Test</t>
+  </si>
+  <si>
+    <t>LSTM Training</t>
+  </si>
+  <si>
+    <t>LSTM Test</t>
+  </si>
+  <si>
+    <t>SVR Training</t>
+  </si>
+  <si>
+    <t>SVR Test</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Dataset</t>
+  </si>
+  <si>
+    <t>Training</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Hang Seng Error Table in Training</t>
+  </si>
+  <si>
+    <t>Hang Seng Most Accurate Model</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000000000000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -26,21 +117,45 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="1" tint="0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -48,26 +163,240 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="20% - Cor1" xfId="1" builtinId="30"/>
+    <cellStyle name="20% - Cor6" xfId="2" builtinId="50"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -109,7 +438,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -141,9 +470,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -175,6 +522,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -350,256 +715,252 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="G3:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="7" max="10" width="25.36328125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>V1</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>V2</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>V3</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>V4</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Model/data set</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Mean Absolute Error</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Mean Squared Error</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Root Mean Squared Error</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>GARCH Training</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0.00682993862749653</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0.00029029659583711</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.0170380924940883</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>GARCH Test</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0.0100881393798388</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0.000117989857435965</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.032586940895452</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Monte Carlo</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0.0524066882640991</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0.00303765973399746</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.0551149683298236</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>GARCH-MIDAS Training</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0.0112847569605144</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0.000135213731481316</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.0116281439396542</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>GARCH-MIDAS Test</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>0.000223136774637798</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>6.76844875904847e-08</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.000260162425400911</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>LSTM Training</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0.0129310583248707</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0.000293607404519839</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.0171349760583386</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LSTM Test</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>0.0211721147808265</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0.000562858990818612</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.0237246494351047</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>SVR Training</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>0.00797488144745793</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>0.000121033836271389</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.011001537904829</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>SVR Test</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>0.0110737624072758</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0.000268456812998354</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.0163846517509025</t>
-        </is>
+    <row r="3" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G4" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="18"/>
+    </row>
+    <row r="5" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="9">
+        <v>6.8299386274965302E-3</v>
+      </c>
+      <c r="I6" s="9">
+        <v>2.9029659583711001E-4</v>
+      </c>
+      <c r="J6" s="10">
+        <v>1.7038092494088299E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="9">
+        <v>1.1284756960514401E-2</v>
+      </c>
+      <c r="I7" s="9">
+        <v>1.35213731481316E-4</v>
+      </c>
+      <c r="J7" s="10">
+        <v>1.16281439396542E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="9">
+        <v>1.29310583248707E-2</v>
+      </c>
+      <c r="I8" s="9">
+        <v>2.9360740451983899E-4</v>
+      </c>
+      <c r="J8" s="10">
+        <v>1.7134976058338601E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="12">
+        <v>7.9748814474579297E-3</v>
+      </c>
+      <c r="I9" s="12">
+        <v>1.21033836271389E-4</v>
+      </c>
+      <c r="J9" s="13">
+        <v>1.1001537904829E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G10" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="18"/>
+    </row>
+    <row r="11" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G12" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="9">
+        <v>1.00881393798388E-2</v>
+      </c>
+      <c r="I12" s="9">
+        <v>1.17989857435965E-4</v>
+      </c>
+      <c r="J12" s="10">
+        <v>3.2586940895451999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G13" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" s="9">
+        <v>5.2406688264099097E-2</v>
+      </c>
+      <c r="I13" s="9">
+        <v>3.0376597339974599E-3</v>
+      </c>
+      <c r="J13" s="10">
+        <v>5.5114968329823599E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G14" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="9">
+        <v>2.23136774637798E-4</v>
+      </c>
+      <c r="I14" s="9">
+        <v>6.7684487590484699E-8</v>
+      </c>
+      <c r="J14" s="10">
+        <v>2.6016242540091098E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G15" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="9">
+        <v>2.11721147808265E-2</v>
+      </c>
+      <c r="I15" s="9">
+        <v>5.6285899081861201E-4</v>
+      </c>
+      <c r="J15" s="10">
+        <v>2.3724649435104699E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G16" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="12">
+        <v>1.1073762407275801E-2</v>
+      </c>
+      <c r="I16" s="12">
+        <v>2.68456812998354E-4</v>
+      </c>
+      <c r="J16" s="13">
+        <v>1.63846517509025E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G17" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="18"/>
+    </row>
+    <row r="18" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="5" t="str">
+        <f>+INDEX($G$6:$J$9,MATCH(MIN(H6:H9),H6:H9,0),1)</f>
+        <v>GARCH Training</v>
+      </c>
+      <c r="I19" s="5" t="str">
+        <f t="shared" ref="I19:J19" si="0">+INDEX($G$6:$J$9,MATCH(MIN(I6:I9),I6:I9,0),1)</f>
+        <v>SVR Training</v>
+      </c>
+      <c r="J19" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>SVR Training</v>
+      </c>
+    </row>
+    <row r="20" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G20" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="7" t="str">
+        <f>+INDEX($G$12:$J$16,MATCH(MIN(H12:H16),H12:H16,0),1)</f>
+        <v>GARCH-MIDAS Test</v>
+      </c>
+      <c r="I20" s="7" t="str">
+        <f t="shared" ref="I20:J20" si="1">+INDEX($G$12:$J$16,MATCH(MIN(I12:I16),I12:I16,0),1)</f>
+        <v>GARCH-MIDAS Test</v>
+      </c>
+      <c r="J20" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>GARCH-MIDAS Test</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="G5:J16" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <mergeCells count="3">
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="G17:J17"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>